--- a/Src/Results/Statistics_requests.xlsx
+++ b/Src/Results/Statistics_requests.xlsx
@@ -470,13 +470,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E2" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3">
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
         <v>137</v>
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D4" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E4" t="n">
         <v>147</v>
@@ -527,10 +527,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
         <v>148</v>
